--- a/objectifs.xlsx
+++ b/objectifs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\private\php\p4\p4.blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\p4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1894260E-7642-418E-97D4-6B8957D174CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A619D-AEAB-4015-B215-267DE9D8F597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8CC77EDE-9C0E-4420-8630-D455EBB578AA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Actions a réaliser sur le site</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>La rédaction de billets se fera dans une interface WYSIWYG basée sur TinyMCE</t>
+  </si>
+  <si>
+    <t>avoir une base de donnée relationel</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB1F23A-38DC-4BD0-BB47-AFED3DE0AD7D}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,40 +508,66 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/objectifs.xlsx
+++ b/objectifs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\p4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A619D-AEAB-4015-B215-267DE9D8F597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2072C26-E8C5-4379-85D1-A1A33BC0429A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8CC77EDE-9C0E-4420-8630-D455EBB578AA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Actions a réaliser sur le site</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>avoir une base de donnée relationel</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,11 +491,17 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -503,6 +512,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -548,6 +560,9 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -568,6 +583,9 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
